--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_36.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_13_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3103346.777394667</v>
+        <v>3097892.503572597</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9452080.726589786</v>
+        <v>9452080.726589791</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>702524.4399167361</v>
+        <v>702524.4399167387</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8324899.810885862</v>
+        <v>8324899.810885861</v>
       </c>
     </row>
     <row r="11">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5.309829763041574</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>5.309829763041575</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
     </row>
     <row r="4">
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="H4" t="n">
         <v>6.876045741711437</v>
@@ -840,7 +840,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="J4" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.05642108929943</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>6.05642108929943</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="F6" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G6" t="n">
         <v>5.309829763041575</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="S6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,34 +1095,34 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
+        <v>3.33498035419292</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>6.056421089299432</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1150,13 +1150,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.529361848718425</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>3.487951988786138</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="D9" t="n">
+        <v>12.73205987707308</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13.47865120333094</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>10.75721046822443</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.47865120333094</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>24.22944286848622</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
         <v>359.9009091231189</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.2126251695833</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1429,13 +1429,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>310.2682452187057</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1536,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>14.44306430937961</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
         <v>359.9009091231189</v>
@@ -1624,7 +1624,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958332</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1666,7 +1666,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>32.26395643593907</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988205</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
         <v>120.2716844800353</v>
@@ -1773,19 +1773,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179976</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C17" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E17" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
         <v>359.9009091231189</v>
@@ -1861,7 +1861,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687289</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V17" t="n">
         <v>280.7771218515423</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
         <v>120.2716844800353</v>
@@ -2010,19 +2010,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S19" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T19" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W19" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X19" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y19" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="20">
@@ -2080,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C20" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
         <v>359.9009091231189</v>
@@ -2098,7 +2098,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958332</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T20" t="n">
-        <v>156.9428335210287</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U20" t="n">
         <v>204.0200353403094</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
         <v>120.2716844800353</v>
@@ -2247,19 +2247,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797654</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124513</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T22" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U22" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V22" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W22" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X22" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="23">
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C23" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D23" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E23" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F23" t="n">
         <v>359.9009091231189</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958332</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T23" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D25" t="n">
-        <v>101.6403363996187</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G25" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124558</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145481</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W25" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X25" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>139.3110404717334</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>232.0133980678014</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2848,7 +2848,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3009,10 +3009,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>204.9462879666065</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>256.5297589354574</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>380.5536879678604</v>
+        <v>380.5536879678605</v>
       </c>
       <c r="C32" t="n">
-        <v>363.0927380753874</v>
+        <v>363.0927380753875</v>
       </c>
       <c r="D32" t="n">
-        <v>352.5028879250628</v>
+        <v>352.5028879250629</v>
       </c>
       <c r="E32" t="n">
-        <v>379.7502163766416</v>
+        <v>379.7502163766417</v>
       </c>
       <c r="F32" t="n">
-        <v>404.6958920460913</v>
+        <v>404.6958920460914</v>
       </c>
       <c r="G32" t="n">
-        <v>408.7415719578333</v>
+        <v>408.7415719578334</v>
       </c>
       <c r="H32" t="n">
-        <v>292.4276106917003</v>
+        <v>292.4276106917004</v>
       </c>
       <c r="I32" t="n">
-        <v>39.39677607730584</v>
+        <v>39.39677607730593</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.0076080925557</v>
+        <v>107.0076080925561</v>
       </c>
       <c r="T32" t="n">
-        <v>201.7378164440002</v>
+        <v>201.7378164440001</v>
       </c>
       <c r="U32" t="n">
         <v>248.8150182632817</v>
       </c>
       <c r="V32" t="n">
-        <v>325.5721047745147</v>
+        <v>325.5721047745149</v>
       </c>
       <c r="W32" t="n">
-        <v>347.0608150217928</v>
+        <v>347.060815021793</v>
       </c>
       <c r="X32" t="n">
-        <v>367.5509469828489</v>
+        <v>367.550946982849</v>
       </c>
       <c r="Y32" t="n">
-        <v>384.0577849604334</v>
+        <v>384.0577849604335</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247661</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>177.6518264863172</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>18.39324260461147</v>
       </c>
       <c r="D34" t="n">
-        <v>10.05327158267493</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>144.253808950949</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.5748612187006</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>86.75199897442721</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>187.5888716358218</v>
       </c>
       <c r="T34" t="n">
         <v>217.3687955805491</v>
       </c>
       <c r="U34" t="n">
-        <v>284.0316845099927</v>
+        <v>284.0316845099928</v>
       </c>
       <c r="V34" t="n">
-        <v>249.9574896282079</v>
+        <v>249.957489628208</v>
       </c>
       <c r="W34" t="n">
-        <v>284.3428446409708</v>
+        <v>284.342844640971</v>
       </c>
       <c r="X34" t="n">
-        <v>223.529501693417</v>
+        <v>223.5295016934171</v>
       </c>
       <c r="Y34" t="n">
         <v>216.4044996564747</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T35" t="n">
         <v>156.9428335210276</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,25 +3426,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C37" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D37" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G37" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124547</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3681,7 +3681,7 @@
         <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3742,7 +3742,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C41" t="n">
-        <v>115.4334236192604</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
         <v>307.7079050020904</v>
@@ -3754,10 +3754,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988205</v>
+        <v>187.1075746398393</v>
       </c>
       <c r="X41" t="n">
         <v>322.7559640598765</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247759</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3900,22 +3900,22 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572821</v>
+        <v>97.77987829572902</v>
       </c>
       <c r="I43" t="n">
         <v>49.37728379124552</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3985,13 +3985,13 @@
         <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
-        <v>313.4652246079172</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348609</v>
+        <v>263.3327929175287</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4036,7 +4036,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>302.2658320988205</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,25 +4137,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124601</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
         <v>205.1625067052354</v>
@@ -4333,19 +4333,19 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M2" t="n">
-        <v>7.082327113962777</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="N2" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O2" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P2" t="n">
         <v>27.50418296684575</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.14071855973305</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="C3" t="n">
-        <v>22.14071855973305</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="D3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="E3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="F3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="G3" t="n">
-        <v>15.19521781052957</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="H3" t="n">
-        <v>8.2497170613261</v>
+        <v>1.304216312122629</v>
       </c>
       <c r="I3" t="n">
         <v>1.304216312122629</v>
@@ -4412,49 +4412,49 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5500836593369149</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N3" t="n">
-        <v>7.082327113962777</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O3" t="n">
-        <v>13.8896123982571</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P3" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q3" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S3" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="T3" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="U3" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="V3" t="n">
-        <v>22.14071855973305</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="W3" t="n">
-        <v>22.14071855973305</v>
+        <v>15.19521781052957</v>
       </c>
       <c r="X3" t="n">
-        <v>22.14071855973305</v>
+        <v>8.2497170613261</v>
       </c>
       <c r="Y3" t="n">
-        <v>22.14071855973305</v>
+        <v>1.304216312122629</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="C4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="D4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="E4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="F4" t="n">
         <v>21.38658590694733</v>
       </c>
       <c r="G4" t="n">
-        <v>21.38658590694733</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="H4" t="n">
-        <v>14.44108515774386</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I4" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J4" t="n">
         <v>0.5500836593369149</v>
@@ -4533,7 +4533,7 @@
         <v>27.50418296684575</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.38658590694733</v>
+        <v>27.50418296684575</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="C5" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="D5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.38658590694733</v>
+      </c>
+      <c r="F5" t="n">
         <v>14.44108515774386</v>
       </c>
-      <c r="E5" t="n">
-        <v>14.44108515774386</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>7.495584408540386</v>
       </c>
-      <c r="G5" t="n">
-        <v>0.5500836593369149</v>
-      </c>
       <c r="H5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="J5" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K5" t="n">
-        <v>7.357368943631237</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L5" t="n">
-        <v>14.16465422792556</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="M5" t="n">
-        <v>20.97193951221988</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="N5" t="n">
-        <v>20.97193951221988</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="O5" t="n">
-        <v>27.50418296684575</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P5" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y5" t="n">
-        <v>27.50418296684575</v>
+        <v>21.38658590694733</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="C6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="D6" t="n">
-        <v>8.2497170613261</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="E6" t="n">
-        <v>8.2497170613261</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="F6" t="n">
-        <v>8.2497170613261</v>
+        <v>6.667680719235332</v>
       </c>
       <c r="G6" t="n">
         <v>1.304216312122629</v>
@@ -4649,28 +4649,28 @@
         <v>0.5500836593369149</v>
       </c>
       <c r="K6" t="n">
-        <v>0.5500836593369149</v>
+        <v>7.082327113962777</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5500836593369149</v>
+        <v>13.8896123982571</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5500836593369149</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="N6" t="n">
-        <v>7.357368943631237</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O6" t="n">
-        <v>14.16465422792556</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="P6" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q6" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50418296684575</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S6" t="n">
         <v>20.55868221764227</v>
@@ -4688,10 +4688,10 @@
         <v>20.55868221764227</v>
       </c>
       <c r="X6" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.6131814684388</v>
+        <v>20.55868221764227</v>
       </c>
     </row>
     <row r="7">
@@ -4737,37 +4737,37 @@
         <v>14.16465422792556</v>
       </c>
       <c r="N7" t="n">
-        <v>20.97193951221988</v>
+        <v>20.69689768255142</v>
       </c>
       <c r="O7" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="P7" t="n">
-        <v>27.50418296684575</v>
+        <v>24.75525293138463</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="R7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="S7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V7" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W7" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X7" t="n">
-        <v>14.44108515774386</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="Y7" t="n">
         <v>14.44108515774386</v>
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="F8" t="n">
-        <v>16.68152962255934</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="G8" t="n">
-        <v>1.224219001210804</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="H8" t="n">
-        <v>1.224219001210804</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="I8" t="n">
-        <v>1.224219001210804</v>
+        <v>13.29420824829416</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M8" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N8" t="n">
-        <v>46.0612399205565</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O8" t="n">
         <v>61.2109500605402</v>
@@ -4825,31 +4825,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>47.59615086525642</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y8" t="n">
-        <v>32.13884024390788</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C9" t="n">
-        <v>16.68152962255934</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D9" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="E9" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="F9" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="G9" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="H9" t="n">
-        <v>1.224219001210804</v>
+        <v>17.43566227534506</v>
       </c>
       <c r="I9" t="n">
-        <v>1.224219001210804</v>
+        <v>1.978351653996518</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4898,37 +4898,37 @@
         <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.6733494211619</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y9" t="n">
-        <v>47.59615086525642</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>47.59615086525642</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="G10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="H10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="I10" t="n">
+        <v>32.13884024390788</v>
+      </c>
+      <c r="J10" t="n">
         <v>16.68152962255934</v>
-      </c>
-      <c r="C10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="D10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="E10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="F10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="G10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="H10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.68152962255934</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.224219001210804</v>
       </c>
       <c r="K10" t="n">
         <v>1.224219001210804</v>
@@ -4980,34 +4980,34 @@
         <v>61.2109500605402</v>
       </c>
       <c r="P10" t="n">
-        <v>61.2109500605402</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>47.59615086525642</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T10" t="n">
-        <v>32.13884024390788</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.68152962255934</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1384.763339702901</v>
+        <v>2020.140658629768</v>
       </c>
       <c r="C11" t="n">
-        <v>1384.763339702901</v>
+        <v>1698.627774637429</v>
       </c>
       <c r="D11" t="n">
-        <v>1073.947274044224</v>
+        <v>1387.811708978752</v>
       </c>
       <c r="E11" t="n">
         <v>1049.473089328581</v>
       </c>
       <c r="F11" t="n">
-        <v>685.9368174870469</v>
+        <v>685.9368174870468</v>
       </c>
       <c r="G11" t="n">
-        <v>318.3140002801167</v>
+        <v>318.3140002801166</v>
       </c>
       <c r="H11" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="I11" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J11" t="n">
         <v>257.0591637959826</v>
       </c>
       <c r="K11" t="n">
-        <v>590.8785374858292</v>
+        <v>590.878537485829</v>
       </c>
       <c r="L11" t="n">
         <v>1041.912750734238</v>
@@ -5056,37 +5056,37 @@
         <v>2122.223472464945</v>
       </c>
       <c r="O11" t="n">
-        <v>2706.923847178196</v>
+        <v>2625.195943344282</v>
       </c>
       <c r="P11" t="n">
-        <v>3101.698213535374</v>
+        <v>3019.97030970146</v>
       </c>
       <c r="Q11" t="n">
-        <v>3349.984575291056</v>
+        <v>3284.925319616801</v>
       </c>
       <c r="R11" t="n">
-        <v>3409.001641847859</v>
+        <v>3409.001641847856</v>
       </c>
       <c r="S11" t="n">
-        <v>3346.160606323027</v>
+        <v>3346.160606323024</v>
       </c>
       <c r="T11" t="n">
-        <v>3187.632491655323</v>
+        <v>3187.632491655319</v>
       </c>
       <c r="U11" t="n">
-        <v>2981.551647877232</v>
+        <v>2981.551647877229</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.938393481735</v>
+        <v>2981.551647877229</v>
       </c>
       <c r="W11" t="n">
-        <v>2392.619371159694</v>
+        <v>2676.232625555188</v>
       </c>
       <c r="X11" t="n">
-        <v>2066.603245846688</v>
+        <v>2362.830357657506</v>
       </c>
       <c r="Y11" t="n">
-        <v>1723.913546818949</v>
+        <v>2020.140658629768</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.2117708858818</v>
+        <v>943.2117708858832</v>
       </c>
       <c r="C12" t="n">
-        <v>768.7587416047548</v>
+        <v>768.7587416047562</v>
       </c>
       <c r="D12" t="n">
-        <v>619.8243319435037</v>
+        <v>619.8243319435051</v>
       </c>
       <c r="E12" t="n">
-        <v>460.5868769380481</v>
+        <v>460.5868769380495</v>
       </c>
       <c r="F12" t="n">
-        <v>314.0523189649332</v>
+        <v>314.0523189649346</v>
       </c>
       <c r="G12" t="n">
-        <v>177.689218797552</v>
+        <v>177.6892187975526</v>
       </c>
       <c r="H12" t="n">
-        <v>87.18732443541967</v>
+        <v>87.18732443541953</v>
       </c>
       <c r="I12" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J12" t="n">
-        <v>161.8573023275745</v>
+        <v>161.8573023275747</v>
       </c>
       <c r="K12" t="n">
-        <v>400.1215013079217</v>
+        <v>400.1215013079221</v>
       </c>
       <c r="L12" t="n">
-        <v>766.8196616205868</v>
+        <v>766.8196616205878</v>
       </c>
       <c r="M12" t="n">
-        <v>1214.095986842903</v>
+        <v>1214.095986842904</v>
       </c>
       <c r="N12" t="n">
-        <v>1687.619030397357</v>
+        <v>1687.619030397358</v>
       </c>
       <c r="O12" t="n">
-        <v>2098.580309815412</v>
+        <v>2098.580309815413</v>
       </c>
       <c r="P12" t="n">
-        <v>2409.079901291515</v>
+        <v>2409.079901291516</v>
       </c>
       <c r="Q12" t="n">
-        <v>2566.721458938115</v>
+        <v>2566.721458938116</v>
       </c>
       <c r="R12" t="n">
-        <v>2566.57710553063</v>
+        <v>2566.577105530631</v>
       </c>
       <c r="S12" t="n">
-        <v>2437.13921902411</v>
+        <v>2437.139219024111</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.496218701966</v>
+        <v>2244.496218701967</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.428371836381</v>
+        <v>2016.428371836382</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.276263604638</v>
+        <v>1781.27626360464</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.038906876437</v>
+        <v>1527.038906876438</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.187406670904</v>
+        <v>1319.187406670905</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.42710790595</v>
+        <v>1111.427107905951</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.1341662100677</v>
+        <v>761.1341662100681</v>
       </c>
       <c r="C13" t="n">
-        <v>639.647616230234</v>
+        <v>639.6476162302345</v>
       </c>
       <c r="D13" t="n">
-        <v>536.9806097659717</v>
+        <v>536.9806097659721</v>
       </c>
       <c r="E13" t="n">
-        <v>436.5171491316521</v>
+        <v>436.5171491316522</v>
       </c>
       <c r="F13" t="n">
-        <v>337.0768345818153</v>
+        <v>337.0768345818151</v>
       </c>
       <c r="G13" t="n">
-        <v>216.8236309046075</v>
+        <v>216.8236309046074</v>
       </c>
       <c r="H13" t="n">
         <v>118.0560770705385</v>
       </c>
       <c r="I13" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J13" t="n">
         <v>159.8080505362993</v>
@@ -5205,7 +5205,7 @@
         <v>410.3006187375823</v>
       </c>
       <c r="L13" t="n">
-        <v>773.365802438485</v>
+        <v>773.3658024384853</v>
       </c>
       <c r="M13" t="n">
         <v>1164.028233290441</v>
@@ -5229,13 +5229,13 @@
         <v>2114.38847099302</v>
       </c>
       <c r="T13" t="n">
-        <v>1940.071488510619</v>
+        <v>1940.07148851062</v>
       </c>
       <c r="U13" t="n">
         <v>1698.418254584336</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.183399326522</v>
+        <v>1491.183399326523</v>
       </c>
       <c r="W13" t="n">
         <v>1249.215862237635</v>
@@ -5244,7 +5244,7 @@
         <v>1068.675944287691</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.3329980922342</v>
+        <v>895.3329980922344</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1723.913546818949</v>
+        <v>1698.627774637429</v>
       </c>
       <c r="C14" t="n">
-        <v>1402.400662826611</v>
+        <v>1698.627774637429</v>
       </c>
       <c r="D14" t="n">
         <v>1387.811708978752</v>
@@ -5266,64 +5266,64 @@
         <v>1049.473089328581</v>
       </c>
       <c r="F14" t="n">
-        <v>685.9368174870471</v>
+        <v>685.9368174870468</v>
       </c>
       <c r="G14" t="n">
-        <v>318.3140002801168</v>
+        <v>318.3140002801166</v>
       </c>
       <c r="H14" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="I14" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J14" t="n">
-        <v>257.0591637959826</v>
+        <v>273.7278119556409</v>
       </c>
       <c r="K14" t="n">
-        <v>590.8785374858289</v>
+        <v>607.5471856454874</v>
       </c>
       <c r="L14" t="n">
-        <v>1041.912750734238</v>
+        <v>1058.581398893896</v>
       </c>
       <c r="M14" t="n">
-        <v>1575.444655406162</v>
+        <v>1592.113303565821</v>
       </c>
       <c r="N14" t="n">
-        <v>2122.223472464944</v>
+        <v>2138.892120624603</v>
       </c>
       <c r="O14" t="n">
-        <v>2625.195943344281</v>
+        <v>2641.86459150394</v>
       </c>
       <c r="P14" t="n">
-        <v>3101.698213535374</v>
+        <v>3036.638957861118</v>
       </c>
       <c r="Q14" t="n">
-        <v>3349.984575291056</v>
+        <v>3284.925319616801</v>
       </c>
       <c r="R14" t="n">
-        <v>3409.001641847859</v>
+        <v>3409.001641847856</v>
       </c>
       <c r="S14" t="n">
-        <v>3346.160606323027</v>
+        <v>3409.001641847856</v>
       </c>
       <c r="T14" t="n">
-        <v>3187.632491655323</v>
+        <v>3250.473527180151</v>
       </c>
       <c r="U14" t="n">
-        <v>2981.551647877232</v>
+        <v>3044.392683402061</v>
       </c>
       <c r="V14" t="n">
-        <v>2697.938393481735</v>
+        <v>3011.802828416264</v>
       </c>
       <c r="W14" t="n">
-        <v>2392.619371159694</v>
+        <v>2706.483806094223</v>
       </c>
       <c r="X14" t="n">
-        <v>2066.603245846688</v>
+        <v>2380.467680781216</v>
       </c>
       <c r="Y14" t="n">
-        <v>1723.913546818949</v>
+        <v>2037.777981753478</v>
       </c>
     </row>
     <row r="15">
@@ -5333,31 +5333,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>943.2117708858824</v>
+        <v>943.2117708858818</v>
       </c>
       <c r="C15" t="n">
-        <v>768.7587416047554</v>
+        <v>768.7587416047548</v>
       </c>
       <c r="D15" t="n">
-        <v>619.8243319435041</v>
+        <v>619.8243319435037</v>
       </c>
       <c r="E15" t="n">
-        <v>460.5868769380487</v>
+        <v>460.5868769380481</v>
       </c>
       <c r="F15" t="n">
-        <v>314.0523189649336</v>
+        <v>314.0523189649332</v>
       </c>
       <c r="G15" t="n">
-        <v>177.6892187975517</v>
+        <v>177.6892187975516</v>
       </c>
       <c r="H15" t="n">
-        <v>87.18732443541924</v>
+        <v>87.18732443541916</v>
       </c>
       <c r="I15" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J15" t="n">
-        <v>161.8573023275745</v>
+        <v>161.8573023275744</v>
       </c>
       <c r="K15" t="n">
         <v>400.1215013079216</v>
@@ -5393,7 +5393,7 @@
         <v>2016.428371836381</v>
       </c>
       <c r="V15" t="n">
-        <v>1781.276263604639</v>
+        <v>1781.276263604638</v>
       </c>
       <c r="W15" t="n">
         <v>1527.038906876437</v>
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.1341662100684</v>
+        <v>761.1341662100681</v>
       </c>
       <c r="C16" t="n">
-        <v>639.6476162302348</v>
+        <v>639.6476162302345</v>
       </c>
       <c r="D16" t="n">
-        <v>536.9806097659723</v>
+        <v>536.9806097659721</v>
       </c>
       <c r="E16" t="n">
-        <v>436.5171491316524</v>
+        <v>436.5171491316522</v>
       </c>
       <c r="F16" t="n">
-        <v>337.0768345818153</v>
+        <v>337.0768345818151</v>
       </c>
       <c r="G16" t="n">
-        <v>216.8236309046075</v>
+        <v>216.8236309046074</v>
       </c>
       <c r="H16" t="n">
-        <v>118.0560770705386</v>
+        <v>118.0560770705385</v>
       </c>
       <c r="I16" t="n">
-        <v>68.18003283695718</v>
+        <v>68.18003283695711</v>
       </c>
       <c r="J16" t="n">
         <v>159.8080505362993</v>
       </c>
       <c r="K16" t="n">
-        <v>410.3006187375822</v>
+        <v>410.3006187375821</v>
       </c>
       <c r="L16" t="n">
         <v>773.3658024384849</v>
       </c>
       <c r="M16" t="n">
-        <v>1164.02823329044</v>
+        <v>1164.028233290441</v>
       </c>
       <c r="N16" t="n">
-        <v>1551.941995248711</v>
+        <v>1551.941995248712</v>
       </c>
       <c r="O16" t="n">
-        <v>1897.776979421531</v>
+        <v>1897.776979421532</v>
       </c>
       <c r="P16" t="n">
-        <v>2176.889865107597</v>
+        <v>2176.889865107598</v>
       </c>
       <c r="Q16" t="n">
         <v>2301.005546512519</v>
@@ -5472,16 +5472,16 @@
         <v>1698.418254584336</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.183399326522</v>
+        <v>1491.183399326523</v>
       </c>
       <c r="W16" t="n">
-        <v>1249.215862237636</v>
+        <v>1249.215862237635</v>
       </c>
       <c r="X16" t="n">
-        <v>1068.675944287692</v>
+        <v>1068.675944287691</v>
       </c>
       <c r="Y16" t="n">
-        <v>895.3329980922349</v>
+        <v>895.3329980922344</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C17" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D17" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E17" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F17" t="n">
-        <v>698.90370154678</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G17" t="n">
-        <v>331.2808843398497</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H17" t="n">
         <v>81.14691689668918</v>
@@ -5515,28 +5515,28 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J17" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K17" t="n">
-        <v>603.845421545561</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L17" t="n">
-        <v>1326.966459396849</v>
+        <v>1243.212295711679</v>
       </c>
       <c r="M17" t="n">
-        <v>2305.516762226677</v>
+        <v>1776.744200383603</v>
       </c>
       <c r="N17" t="n">
-        <v>2852.29557928546</v>
+        <v>2323.523017442385</v>
       </c>
       <c r="O17" t="n">
-        <v>3355.268050164796</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P17" t="n">
-        <v>3750.042416521974</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q17" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R17" t="n">
         <v>4057.345844834459</v>
@@ -5545,22 +5545,22 @@
         <v>3994.504809309627</v>
       </c>
       <c r="T17" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U17" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V17" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W17" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X17" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y17" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>774.1010502698005</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C19" t="n">
-        <v>652.6145002899668</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D19" t="n">
-        <v>549.9474938257043</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E19" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F19" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G19" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302703</v>
       </c>
       <c r="I19" t="n">
         <v>81.14691689668918</v>
       </c>
       <c r="J19" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K19" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L19" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M19" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N19" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O19" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P19" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q19" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R19" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S19" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T19" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U19" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V19" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X19" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.2998821519669</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C20" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D20" t="n">
         <v>1400.778593038484</v>
@@ -5740,61 +5740,61 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F20" t="n">
-        <v>698.9037015467791</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G20" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H20" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I20" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J20" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K20" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L20" t="n">
-        <v>1339.011402386889</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M20" t="n">
-        <v>1872.543307058813</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N20" t="n">
-        <v>2852.29557928546</v>
+        <v>2456.094314970129</v>
       </c>
       <c r="O20" t="n">
-        <v>3355.268050164796</v>
+        <v>2959.066785849466</v>
       </c>
       <c r="P20" t="n">
-        <v>3750.042416521974</v>
+        <v>3672.421873296411</v>
       </c>
       <c r="Q20" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R20" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S20" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T20" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U20" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V20" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W20" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X20" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y20" t="n">
         <v>2372.257749805548</v>
@@ -5828,7 +5828,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I21" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J21" t="n">
         <v>174.8241863873064</v>
@@ -5843,16 +5843,16 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N21" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O21" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P21" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q21" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R21" t="n">
         <v>2579.543989590362</v>
@@ -5892,22 +5892,22 @@
         <v>652.6145002899664</v>
       </c>
       <c r="D22" t="n">
-        <v>549.9474938257039</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E22" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F22" t="n">
-        <v>350.0437186415469</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G22" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0229611302701</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I22" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J22" t="n">
         <v>172.7749345960313</v>
@@ -5916,16 +5916,16 @@
         <v>423.2675027973143</v>
       </c>
       <c r="L22" t="n">
-        <v>786.3326864982168</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M22" t="n">
         <v>1176.995117350172</v>
       </c>
       <c r="N22" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O22" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P22" t="n">
         <v>2189.856749167329</v>
@@ -5934,16 +5934,16 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R22" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S22" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T22" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U22" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V22" t="n">
         <v>1504.150283386255</v>
@@ -5955,7 +5955,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y22" t="n">
-        <v>908.2998821519665</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>937.3106675423239</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
-        <v>1388.344880790733</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1921.876785462657</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2468.655602521439</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>2971.628073400776</v>
+        <v>2826.495488321721</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.983160847722</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603404</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q24" t="n">
         <v>2579.688342997847</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697993</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899657</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257043</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
         <v>172.7749345960313</v>
@@ -6162,10 +6162,10 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q25" t="n">
         <v>2313.972430572251</v>
@@ -6183,7 +6183,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6192,7 +6192,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519658</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
         <v>850.2139837551626</v>
@@ -6226,28 +6226,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>786.6724891157203</v>
+        <v>888.4135721382793</v>
       </c>
       <c r="L26" t="n">
-        <v>1237.706702364129</v>
+        <v>1339.447785386688</v>
       </c>
       <c r="M26" t="n">
-        <v>2216.257005193957</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>647.524957736193</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C28" t="n">
-        <v>506.8067350374723</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D28" t="n">
-        <v>506.8067350374723</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E28" t="n">
-        <v>506.8067350374723</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F28" t="n">
         <v>506.8067350374723</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1674.827124689057</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="U28" t="n">
-        <v>1385.724257814701</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="V28" t="n">
-        <v>1385.724257814701</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="W28" t="n">
-        <v>1096.30708777774</v>
+        <v>1530.300614186275</v>
       </c>
       <c r="X28" t="n">
-        <v>868.3175368797231</v>
+        <v>1302.311063288258</v>
       </c>
       <c r="Y28" t="n">
-        <v>647.524957736193</v>
+        <v>1302.311063288258</v>
       </c>
     </row>
     <row r="29">
@@ -6442,49 +6442,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.557933208926</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.328657580449</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807095</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3944.053400686432</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4338.82776704361</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6496,13 +6496,13 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
         <v>3150.95552873011</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.1336314069201</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>637.1336314069201</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>487.0169919945844</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>339.1038984121913</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.657581931529</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V31" t="n">
-        <v>1046.771647135177</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.771647135177</v>
+        <v>841.8380697298394</v>
       </c>
       <c r="X31" t="n">
-        <v>818.7820962371599</v>
+        <v>613.848518831822</v>
       </c>
       <c r="Y31" t="n">
-        <v>818.7820962371599</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2358.126993197453</v>
+        <v>2358.126993197452</v>
       </c>
       <c r="C32" t="n">
         <v>1991.366651707162</v>
@@ -6691,31 +6691,31 @@
         <v>842.933322062924</v>
       </c>
       <c r="G32" t="n">
-        <v>430.0630473580419</v>
+        <v>430.0630473580418</v>
       </c>
       <c r="H32" t="n">
-        <v>134.6816224169305</v>
+        <v>134.6816224169306</v>
       </c>
       <c r="I32" t="n">
         <v>94.88689910652054</v>
       </c>
       <c r="J32" t="n">
-        <v>283.7660300655459</v>
+        <v>451.171679085899</v>
       </c>
       <c r="K32" t="n">
-        <v>617.5854037553922</v>
+        <v>1037.125757830468</v>
       </c>
       <c r="L32" t="n">
-        <v>1068.619617003801</v>
+        <v>1488.159971078877</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.169919833629</v>
+        <v>2021.691875750801</v>
       </c>
       <c r="N32" t="n">
-        <v>3026.922192060276</v>
+        <v>2568.470692809583</v>
       </c>
       <c r="O32" t="n">
-        <v>3529.894662939613</v>
+        <v>3448.435343139038</v>
       </c>
       <c r="P32" t="n">
         <v>4161.790430585984</v>
@@ -6739,13 +6739,13 @@
         <v>3852.291876968095</v>
       </c>
       <c r="W32" t="n">
-        <v>3501.725397148102</v>
+        <v>3501.725397148101</v>
       </c>
       <c r="X32" t="n">
-        <v>3130.461814337144</v>
+        <v>3130.461814337143</v>
       </c>
       <c r="Y32" t="n">
-        <v>2742.524657811453</v>
+        <v>2742.524657811452</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>969.9186371554449</v>
+        <v>969.9186371554457</v>
       </c>
       <c r="C33" t="n">
-        <v>795.4656078743179</v>
+        <v>795.4656078743187</v>
       </c>
       <c r="D33" t="n">
-        <v>646.5311982130667</v>
+        <v>646.5311982130675</v>
       </c>
       <c r="E33" t="n">
-        <v>487.2937432076112</v>
+        <v>487.293743207612</v>
       </c>
       <c r="F33" t="n">
-        <v>340.7591852344962</v>
+        <v>340.759185234497</v>
       </c>
       <c r="G33" t="n">
-        <v>204.3960850671143</v>
+        <v>204.3960850671151</v>
       </c>
       <c r="H33" t="n">
-        <v>113.8941907049818</v>
+        <v>113.8941907049826</v>
       </c>
       <c r="I33" t="n">
         <v>94.88689910652054</v>
@@ -6803,28 +6803,28 @@
         <v>2593.428325207678</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.283971800193</v>
+        <v>2593.283971800194</v>
       </c>
       <c r="S33" t="n">
-        <v>2463.846085293673</v>
+        <v>2463.846085293674</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.203084971528</v>
+        <v>2271.203084971529</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.135238105944</v>
+        <v>2043.135238105945</v>
       </c>
       <c r="V33" t="n">
-        <v>1807.983129874201</v>
+        <v>1807.983129874202</v>
       </c>
       <c r="W33" t="n">
         <v>1553.745773146</v>
       </c>
       <c r="X33" t="n">
-        <v>1345.894272940467</v>
+        <v>1345.894272940468</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.133974175513</v>
+        <v>1138.133974175514</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>394.7676483512928</v>
+        <v>113.4659320404715</v>
       </c>
       <c r="C34" t="n">
-        <v>394.7676483512928</v>
+        <v>94.88689910652054</v>
       </c>
       <c r="D34" t="n">
-        <v>384.6128285708131</v>
+        <v>94.88689910652054</v>
       </c>
       <c r="E34" t="n">
-        <v>238.9019104385414</v>
+        <v>94.88689910652054</v>
       </c>
       <c r="F34" t="n">
-        <v>238.9019104385414</v>
+        <v>94.88689910652054</v>
       </c>
       <c r="G34" t="n">
-        <v>238.9019104385414</v>
+        <v>94.88689910652054</v>
       </c>
       <c r="H34" t="n">
         <v>94.88689910652054</v>
@@ -6858,52 +6858,52 @@
         <v>94.88689910652054</v>
       </c>
       <c r="J34" t="n">
-        <v>142.16788371212</v>
+        <v>142.1678837121199</v>
       </c>
       <c r="K34" t="n">
-        <v>348.3134188196602</v>
+        <v>348.3134188196601</v>
       </c>
       <c r="L34" t="n">
-        <v>667.0315694268202</v>
+        <v>667.0315694268201</v>
       </c>
       <c r="M34" t="n">
         <v>1013.346967185033</v>
       </c>
       <c r="N34" t="n">
-        <v>1356.913696049562</v>
+        <v>1356.913696049561</v>
       </c>
       <c r="O34" t="n">
-        <v>1658.401647128639</v>
+        <v>1658.401647128638</v>
       </c>
       <c r="P34" t="n">
         <v>1893.167499720962</v>
       </c>
       <c r="Q34" t="n">
-        <v>1972.936148032141</v>
+        <v>1972.93614803214</v>
       </c>
       <c r="R34" t="n">
-        <v>1885.30786623979</v>
+        <v>1972.93614803214</v>
       </c>
       <c r="S34" t="n">
-        <v>1885.30786623979</v>
+        <v>1783.452439309088</v>
       </c>
       <c r="T34" t="n">
-        <v>1665.743426259437</v>
+        <v>1563.887999328735</v>
       </c>
       <c r="U34" t="n">
-        <v>1378.842734835202</v>
+        <v>1276.9873079045</v>
       </c>
       <c r="V34" t="n">
-        <v>1126.360422079437</v>
+        <v>1024.504995148734</v>
       </c>
       <c r="W34" t="n">
-        <v>839.1454274925976</v>
+        <v>737.2900005618949</v>
       </c>
       <c r="X34" t="n">
-        <v>613.3580520447016</v>
+        <v>511.5026251139988</v>
       </c>
       <c r="Y34" t="n">
-        <v>394.7676483512928</v>
+        <v>292.91222142059</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C35" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
         <v>437.4316968760676</v>
@@ -6943,46 +6943,46 @@
         <v>771.251070565914</v>
       </c>
       <c r="L35" t="n">
-        <v>1339.011402386888</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M35" t="n">
-        <v>1872.543307058813</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N35" t="n">
-        <v>2852.295579285459</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O35" t="n">
-        <v>3355.268050164796</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P35" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q35" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T35" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U35" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7013,7 +7013,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7037,7 +7037,7 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q36" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R36" t="n">
         <v>2579.543989590362</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899664</v>
       </c>
       <c r="D37" t="n">
-        <v>549.9474938257038</v>
+        <v>549.947493825704</v>
       </c>
       <c r="E37" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
         <v>229.7905149643394</v>
@@ -7092,13 +7092,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7119,10 +7119,10 @@
         <v>2313.972430572251</v>
       </c>
       <c r="R37" t="n">
-        <v>2271.591606277851</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S37" t="n">
-        <v>2127.355355052751</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T37" t="n">
         <v>1953.038372570351</v>
@@ -7131,7 +7131,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V37" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W37" t="n">
         <v>1262.182746297367</v>
@@ -7140,7 +7140,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="38">
@@ -7150,64 +7150,64 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C38" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D38" t="n">
         <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467793</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G38" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K38" t="n">
-        <v>810.8729904741858</v>
+        <v>1045.699547878785</v>
       </c>
       <c r="L38" t="n">
-        <v>1261.907203722595</v>
+        <v>1496.733761127193</v>
       </c>
       <c r="M38" t="n">
-        <v>2240.457506552423</v>
+        <v>2030.265665799118</v>
       </c>
       <c r="N38" t="n">
-        <v>2787.236323611206</v>
+        <v>2577.0444828579</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490542</v>
+        <v>3080.016953737237</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847721</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V38" t="n">
         <v>3346.282596468334</v>
@@ -7216,10 +7216,10 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7229,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C39" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D39" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E39" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F39" t="n">
         <v>327.0192030246656</v>
@@ -7250,28 +7250,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K39" t="n">
-        <v>413.0883853676537</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O39" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P39" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q39" t="n">
         <v>2579.688342997847</v>
@@ -7329,19 +7329,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L40" t="n">
-        <v>786.3326864982168</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
         <v>1564.908879308444</v>
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1447.604375227732</v>
+        <v>1770.006691186608</v>
       </c>
       <c r="C41" t="n">
-        <v>1331.004957430499</v>
+        <v>1448.493807194269</v>
       </c>
       <c r="D41" t="n">
-        <v>1020.188891771822</v>
+        <v>1137.677741535592</v>
       </c>
       <c r="E41" t="n">
-        <v>681.850272121651</v>
+        <v>799.3391218854215</v>
       </c>
       <c r="F41" t="n">
-        <v>318.3140002801167</v>
+        <v>435.8028500438873</v>
       </c>
       <c r="G41" t="n">
-        <v>318.3140002801167</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="H41" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="I41" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J41" t="n">
-        <v>257.0591637959826</v>
+        <v>257.0591637959825</v>
       </c>
       <c r="K41" t="n">
-        <v>590.8785374858292</v>
+        <v>672.6064413197403</v>
       </c>
       <c r="L41" t="n">
-        <v>1041.912750734238</v>
+        <v>1123.640654568149</v>
       </c>
       <c r="M41" t="n">
-        <v>1575.444655406162</v>
+        <v>1657.172559240073</v>
       </c>
       <c r="N41" t="n">
-        <v>2122.223472464945</v>
+        <v>2203.951376298855</v>
       </c>
       <c r="O41" t="n">
-        <v>2625.195943344282</v>
+        <v>2706.923847178192</v>
       </c>
       <c r="P41" t="n">
-        <v>3101.698213535373</v>
+        <v>3101.69821353537</v>
       </c>
       <c r="Q41" t="n">
-        <v>3349.984575291056</v>
+        <v>3349.984575291052</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.001641847858</v>
+        <v>3409.001641847855</v>
       </c>
       <c r="S41" t="n">
-        <v>3409.001641847858</v>
+        <v>3409.001641847855</v>
       </c>
       <c r="T41" t="n">
-        <v>3250.473527180153</v>
+        <v>3250.47352718015</v>
       </c>
       <c r="U41" t="n">
-        <v>3044.392683402063</v>
+        <v>3250.47352718015</v>
       </c>
       <c r="V41" t="n">
-        <v>2760.779429006566</v>
+        <v>2966.860272784653</v>
       </c>
       <c r="W41" t="n">
-        <v>2455.460406684525</v>
+        <v>2777.862722643401</v>
       </c>
       <c r="X41" t="n">
-        <v>2129.444281371519</v>
+        <v>2451.846597330395</v>
       </c>
       <c r="Y41" t="n">
-        <v>1786.75458234378</v>
+        <v>2109.156898302656</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.2117708858825</v>
+        <v>943.2117708858824</v>
       </c>
       <c r="C42" t="n">
-        <v>768.7587416047555</v>
+        <v>768.7587416047554</v>
       </c>
       <c r="D42" t="n">
-        <v>619.8243319435043</v>
+        <v>619.8243319435041</v>
       </c>
       <c r="E42" t="n">
-        <v>460.5868769380488</v>
+        <v>460.5868769380486</v>
       </c>
       <c r="F42" t="n">
-        <v>314.0523189649338</v>
+        <v>314.0523189649335</v>
       </c>
       <c r="G42" t="n">
-        <v>177.6892187975519</v>
+        <v>177.6892187975516</v>
       </c>
       <c r="H42" t="n">
-        <v>87.18732443541938</v>
+        <v>87.18732443541916</v>
       </c>
       <c r="I42" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J42" t="n">
-        <v>161.8573023275745</v>
+        <v>161.8573023275744</v>
       </c>
       <c r="K42" t="n">
-        <v>400.1215013079217</v>
+        <v>400.1215013079214</v>
       </c>
       <c r="L42" t="n">
-        <v>766.8196616205871</v>
+        <v>766.8196616205867</v>
       </c>
       <c r="M42" t="n">
-        <v>1214.095986842903</v>
+        <v>1214.095986842902</v>
       </c>
       <c r="N42" t="n">
-        <v>1687.619030397358</v>
+        <v>1687.619030397357</v>
       </c>
       <c r="O42" t="n">
         <v>2098.580309815412</v>
       </c>
       <c r="P42" t="n">
-        <v>2409.079901291515</v>
+        <v>2409.079901291514</v>
       </c>
       <c r="Q42" t="n">
-        <v>2566.721458938115</v>
+        <v>2566.721458938114</v>
       </c>
       <c r="R42" t="n">
         <v>2566.57710553063</v>
@@ -7523,7 +7523,7 @@
         <v>2244.496218701966</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.428371836382</v>
+        <v>2016.428371836381</v>
       </c>
       <c r="V42" t="n">
         <v>1781.276263604639</v>
@@ -7535,7 +7535,7 @@
         <v>1319.187406670904</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.427107905951</v>
+        <v>1111.42710790595</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>761.1341662100681</v>
+        <v>761.1341662100688</v>
       </c>
       <c r="C43" t="n">
-        <v>639.6476162302345</v>
+        <v>639.6476162302351</v>
       </c>
       <c r="D43" t="n">
-        <v>536.9806097659721</v>
+        <v>536.9806097659728</v>
       </c>
       <c r="E43" t="n">
-        <v>436.5171491316522</v>
+        <v>436.517149131653</v>
       </c>
       <c r="F43" t="n">
-        <v>337.0768345818151</v>
+        <v>337.0768345818159</v>
       </c>
       <c r="G43" t="n">
-        <v>216.8236309046074</v>
+        <v>216.8236309046082</v>
       </c>
       <c r="H43" t="n">
-        <v>118.0560770705385</v>
+        <v>118.0560770705384</v>
       </c>
       <c r="I43" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J43" t="n">
-        <v>159.8080505362994</v>
+        <v>159.8080505362993</v>
       </c>
       <c r="K43" t="n">
-        <v>410.3006187375824</v>
+        <v>410.3006187375822</v>
       </c>
       <c r="L43" t="n">
-        <v>773.3658024384852</v>
+        <v>773.3658024384849</v>
       </c>
       <c r="M43" t="n">
         <v>1164.028233290441</v>
@@ -7599,22 +7599,22 @@
         <v>2114.38847099302</v>
       </c>
       <c r="T43" t="n">
-        <v>1940.071488510619</v>
+        <v>1940.07148851062</v>
       </c>
       <c r="U43" t="n">
-        <v>1698.418254584336</v>
+        <v>1698.418254584337</v>
       </c>
       <c r="V43" t="n">
         <v>1491.183399326523</v>
       </c>
       <c r="W43" t="n">
-        <v>1249.215862237635</v>
+        <v>1249.215862237636</v>
       </c>
       <c r="X43" t="n">
-        <v>1068.675944287691</v>
+        <v>1068.675944287692</v>
       </c>
       <c r="Y43" t="n">
-        <v>895.3329980922344</v>
+        <v>895.3329980922351</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1384.7633397029</v>
+        <v>1668.376594098394</v>
       </c>
       <c r="C44" t="n">
-        <v>1063.250455710562</v>
+        <v>1346.863710106055</v>
       </c>
       <c r="D44" t="n">
-        <v>752.4343900518845</v>
+        <v>1036.047644447378</v>
       </c>
       <c r="E44" t="n">
-        <v>435.8028500438874</v>
+        <v>697.7090247972072</v>
       </c>
       <c r="F44" t="n">
-        <v>435.8028500438874</v>
+        <v>334.172752955673</v>
       </c>
       <c r="G44" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="H44" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="I44" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J44" t="n">
-        <v>257.0591637959826</v>
+        <v>257.0591637959825</v>
       </c>
       <c r="K44" t="n">
-        <v>590.8785374858292</v>
+        <v>590.8785374858289</v>
       </c>
       <c r="L44" t="n">
-        <v>1123.640654568151</v>
+        <v>1041.912750734238</v>
       </c>
       <c r="M44" t="n">
-        <v>1657.172559240076</v>
+        <v>1575.444655406162</v>
       </c>
       <c r="N44" t="n">
-        <v>2203.951376298858</v>
+        <v>2122.223472464944</v>
       </c>
       <c r="O44" t="n">
-        <v>2706.923847178195</v>
+        <v>2625.195943344281</v>
       </c>
       <c r="P44" t="n">
-        <v>3101.698213535373</v>
+        <v>3101.69821353537</v>
       </c>
       <c r="Q44" t="n">
-        <v>3349.984575291056</v>
+        <v>3349.984575291052</v>
       </c>
       <c r="R44" t="n">
-        <v>3409.001641847858</v>
+        <v>3409.001641847855</v>
       </c>
       <c r="S44" t="n">
-        <v>3346.160606323027</v>
+        <v>3346.160606323023</v>
       </c>
       <c r="T44" t="n">
-        <v>3187.632491655322</v>
+        <v>3187.632491655319</v>
       </c>
       <c r="U44" t="n">
-        <v>2981.551647877232</v>
+        <v>2981.551647877228</v>
       </c>
       <c r="V44" t="n">
-        <v>2697.938393481734</v>
+        <v>2981.551647877228</v>
       </c>
       <c r="W44" t="n">
-        <v>2392.619371159693</v>
+        <v>2676.232625555187</v>
       </c>
       <c r="X44" t="n">
-        <v>2066.603245846687</v>
+        <v>2350.216500242181</v>
       </c>
       <c r="Y44" t="n">
-        <v>1723.913546818949</v>
+        <v>2007.526801214442</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>460.5868769380486</v>
       </c>
       <c r="F45" t="n">
-        <v>314.0523189649336</v>
+        <v>314.0523189649335</v>
       </c>
       <c r="G45" t="n">
-        <v>177.6892187975517</v>
+        <v>177.6892187975516</v>
       </c>
       <c r="H45" t="n">
-        <v>87.18732443541921</v>
+        <v>87.18732443541916</v>
       </c>
       <c r="I45" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J45" t="n">
-        <v>161.8573023275745</v>
+        <v>161.8573023275744</v>
       </c>
       <c r="K45" t="n">
-        <v>400.1215013079217</v>
+        <v>400.1215013079214</v>
       </c>
       <c r="L45" t="n">
-        <v>766.8196616205868</v>
+        <v>766.8196616205867</v>
       </c>
       <c r="M45" t="n">
-        <v>1214.095986842903</v>
+        <v>1214.095986842902</v>
       </c>
       <c r="N45" t="n">
         <v>1687.619030397357</v>
@@ -7745,10 +7745,10 @@
         <v>2098.580309815412</v>
       </c>
       <c r="P45" t="n">
-        <v>2409.079901291515</v>
+        <v>2409.079901291514</v>
       </c>
       <c r="Q45" t="n">
-        <v>2566.721458938115</v>
+        <v>2566.721458938114</v>
       </c>
       <c r="R45" t="n">
         <v>2566.57710553063</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>761.1341662100685</v>
+        <v>761.1341662100679</v>
       </c>
       <c r="C46" t="n">
-        <v>639.6476162302349</v>
+        <v>639.6476162302342</v>
       </c>
       <c r="D46" t="n">
-        <v>536.9806097659725</v>
+        <v>536.9806097659718</v>
       </c>
       <c r="E46" t="n">
-        <v>436.5171491316527</v>
+        <v>436.5171491316521</v>
       </c>
       <c r="F46" t="n">
-        <v>337.0768345818157</v>
+        <v>337.0768345818151</v>
       </c>
       <c r="G46" t="n">
-        <v>216.8236309046079</v>
+        <v>216.8236309046073</v>
       </c>
       <c r="H46" t="n">
-        <v>118.056077070539</v>
+        <v>118.0560770705384</v>
       </c>
       <c r="I46" t="n">
-        <v>68.18003283695717</v>
+        <v>68.1800328369571</v>
       </c>
       <c r="J46" t="n">
-        <v>159.8080505362994</v>
+        <v>159.8080505362992</v>
       </c>
       <c r="K46" t="n">
-        <v>410.3006187375824</v>
+        <v>410.3006187375822</v>
       </c>
       <c r="L46" t="n">
-        <v>773.3658024384852</v>
+        <v>773.3658024384849</v>
       </c>
       <c r="M46" t="n">
         <v>1164.028233290441</v>
@@ -7836,22 +7836,22 @@
         <v>2114.38847099302</v>
       </c>
       <c r="T46" t="n">
-        <v>1940.07148851062</v>
+        <v>1940.071488510619</v>
       </c>
       <c r="U46" t="n">
-        <v>1698.418254584337</v>
+        <v>1698.418254584336</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.183399326523</v>
+        <v>1491.183399326522</v>
       </c>
       <c r="W46" t="n">
-        <v>1249.215862237636</v>
+        <v>1249.215862237635</v>
       </c>
       <c r="X46" t="n">
-        <v>1068.675944287692</v>
+        <v>1068.675944287691</v>
       </c>
       <c r="Y46" t="n">
-        <v>895.3329980922349</v>
+        <v>895.3329980922342</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>226.965896786692</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>242.6424607116987</v>
       </c>
       <c r="M2" t="n">
-        <v>236.944458939016</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2891093383024</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9742571633982</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>238.109041496981</v>
+        <v>237.8312214670128</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>144.7174847160704</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>148.7322596337616</v>
       </c>
       <c r="N3" t="n">
-        <v>137.9399377950766</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>140.8504531560417</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>226.965896786692</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>242.6424607116987</v>
+        <v>242.3646406817305</v>
       </c>
       <c r="M5" t="n">
-        <v>237.2222789689842</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O5" t="n">
-        <v>236.69643713343</v>
+        <v>236.9742571633982</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>238.109041496981</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>144.4396646861023</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>145.4304255215856</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>149.0100796637298</v>
       </c>
       <c r="N6" t="n">
-        <v>138.2177578250447</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>149.4722901861559</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>140.5726331260735</v>
+        <v>140.8504531560417</v>
       </c>
       <c r="Q6" t="n">
-        <v>146.857819827733</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8385,10 +8385,10 @@
         <v>145.8018296893165</v>
       </c>
       <c r="N7" t="n">
-        <v>134.5615902069446</v>
+        <v>134.2837701769765</v>
       </c>
       <c r="O7" t="n">
-        <v>145.0547641635861</v>
+        <v>145.3325841935542</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8455,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>234.7742961352617</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M8" t="n">
         <v>245.6489707424078</v>
@@ -8467,7 +8467,7 @@
         <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -8546,13 +8546,13 @@
         <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>154.6662191763026</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8704,16 +8704,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>82.55343821607505</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>16.83701834308934</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>16.83701834308926</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>82.55343821607585</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>274.8351763665445</v>
+        <v>21.13839585591552</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,10 +9181,10 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,25 +9403,25 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>287.001785447393</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>78.40458911672883</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>167.7369666428384</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9652,16 +9652,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>21.13839585591518</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>170.1140909277314</v>
+        <v>103.7862464855152</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>67.53663776704403</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>254.6815202572959</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>239.516566958781</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,25 +10591,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>117.9051702753188</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>209.1187564935603</v>
+        <v>277.2206841544149</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11062,7 +11062,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>82.5534382160721</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11077,7 +11077,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>82.5534382160742</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>82.55343821607386</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>82.5534382160717</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>310.725790585183</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>12.48771884117076</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.7587050448881</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>293.2648406927108</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>248.5131654156033</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.9357806268944</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>54.50960026878957</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>47.19135535722154</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>29.99323940113362</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>177.6518264863172</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0666674030077</v>
+        <v>146.6734247983963</v>
       </c>
       <c r="D34" t="n">
-        <v>136.3820477399173</v>
+        <v>146.4353193225923</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>144.2538089509491</v>
       </c>
       <c r="F34" t="n">
-        <v>143.2408943273111</v>
+        <v>143.2408943273112</v>
       </c>
       <c r="G34" t="n">
-        <v>163.8456545634081</v>
+        <v>163.8456545634082</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.5748612187007</v>
       </c>
       <c r="I34" t="n">
-        <v>94.17226671421798</v>
+        <v>94.17226671421807</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>86.75199897442729</v>
       </c>
       <c r="S34" t="n">
-        <v>187.5888716358218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>202.8643315331546</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>115.1582574589811</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25873,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>21.49000884575207</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>100.6137961173322</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>665390.7002718452</v>
+        <v>665390.7002718449</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>665390.7002718451</v>
+        <v>665390.7002718449</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720163.5415205969</v>
+        <v>720163.5415205968</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>720360.6782845602</v>
+        <v>720360.6782845601</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>665390.7002718451</v>
+        <v>665390.7002718449</v>
       </c>
     </row>
   </sheetData>
@@ -26319,19 +26319,19 @@
         <v>738333.9046792068</v>
       </c>
       <c r="D2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778549</v>
       </c>
       <c r="E2" t="n">
-        <v>693874.3460612133</v>
+        <v>693874.3460612131</v>
       </c>
       <c r="F2" t="n">
-        <v>693874.3460612138</v>
+        <v>693874.3460612132</v>
       </c>
       <c r="G2" t="n">
-        <v>738937.5928778547</v>
+        <v>738937.5928778553</v>
       </c>
       <c r="H2" t="n">
-        <v>738937.5928778551</v>
+        <v>738937.5928778554</v>
       </c>
       <c r="I2" t="n">
         <v>738937.5928778554</v>
@@ -26343,19 +26343,19 @@
         <v>714747.2163965706</v>
       </c>
       <c r="L2" t="n">
-        <v>715869.911134263</v>
+        <v>715869.9111342635</v>
       </c>
       <c r="M2" t="n">
-        <v>738937.5928778552</v>
+        <v>738937.5928778558</v>
       </c>
       <c r="N2" t="n">
-        <v>738937.5928778555</v>
+        <v>738937.5928778559</v>
       </c>
       <c r="O2" t="n">
-        <v>693874.3460612136</v>
+        <v>693874.3460612135</v>
       </c>
       <c r="P2" t="n">
-        <v>693874.3460612138</v>
+        <v>693874.3460612132</v>
       </c>
     </row>
     <row r="3">
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>44425.35521889557</v>
+        <v>44425.35521889576</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>48941.16827077392</v>
+        <v>48941.16827077401</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1744.122956496115</v>
+        <v>1744.122956496042</v>
       </c>
       <c r="M3" t="n">
-        <v>201605.9626446845</v>
+        <v>201605.9626446843</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>414471.3742669506</v>
+        <v>414471.3742669507</v>
       </c>
       <c r="C4" t="n">
-        <v>414471.3742669506</v>
+        <v>414471.3742669507</v>
       </c>
       <c r="D4" t="n">
         <v>413719.6142666658</v>
       </c>
       <c r="E4" t="n">
-        <v>57921.29588072214</v>
+        <v>57921.29588072207</v>
       </c>
       <c r="F4" t="n">
-        <v>57921.29588072216</v>
+        <v>57921.29588072207</v>
       </c>
       <c r="G4" t="n">
+        <v>74601.16991356861</v>
+      </c>
+      <c r="H4" t="n">
         <v>74601.16991356859</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>74601.16991356858</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>45917.41774240547</v>
+      </c>
+      <c r="K4" t="n">
+        <v>45917.41774240549</v>
+      </c>
+      <c r="L4" t="n">
+        <v>47253.39275719927</v>
+      </c>
+      <c r="M4" t="n">
         <v>74601.16991356859</v>
       </c>
-      <c r="J4" t="n">
-        <v>45917.41774240549</v>
-      </c>
-      <c r="K4" t="n">
-        <v>45917.4177424055</v>
-      </c>
-      <c r="L4" t="n">
-        <v>47253.39275719936</v>
-      </c>
-      <c r="M4" t="n">
-        <v>74601.16991356862</v>
-      </c>
       <c r="N4" t="n">
-        <v>74601.16991356856</v>
+        <v>74601.16991356859</v>
       </c>
       <c r="O4" t="n">
-        <v>57921.29588072216</v>
+        <v>57921.29588072213</v>
       </c>
       <c r="P4" t="n">
-        <v>57921.29588072215</v>
+        <v>57921.29588072211</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>79523.10978940982</v>
+        <v>79523.10978940976</v>
       </c>
       <c r="F5" t="n">
-        <v>79523.10978940981</v>
+        <v>79523.10978940976</v>
       </c>
       <c r="G5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="H5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="I5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="J5" t="n">
         <v>96383.51825371364</v>
@@ -26508,10 +26508,10 @@
         <v>89377.94167480612</v>
       </c>
       <c r="O5" t="n">
-        <v>79523.10978940981</v>
+        <v>79523.10978940976</v>
       </c>
       <c r="P5" t="n">
-        <v>79523.10978940981</v>
+        <v>79523.10978940976</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>287512.5457540608</v>
+        <v>287495.7766374316</v>
       </c>
       <c r="C6" t="n">
-        <v>289816.8668311601</v>
+        <v>289800.0977145309</v>
       </c>
       <c r="D6" t="n">
-        <v>288042.3889046905</v>
+        <v>288042.3889046903</v>
       </c>
       <c r="E6" t="n">
-        <v>-606574.2017836687</v>
+        <v>-607825.9586396868</v>
       </c>
       <c r="F6" t="n">
-        <v>556429.9403910819</v>
+        <v>555178.1835350634</v>
       </c>
       <c r="G6" t="n">
-        <v>530533.1260705844</v>
+        <v>530533.1260705849</v>
       </c>
       <c r="H6" t="n">
-        <v>574958.4812894803</v>
+        <v>574958.4812894807</v>
       </c>
       <c r="I6" t="n">
-        <v>574958.4812894806</v>
+        <v>574958.4812894808</v>
       </c>
       <c r="J6" t="n">
-        <v>523505.1121296777</v>
+        <v>522833.1572274197</v>
       </c>
       <c r="K6" t="n">
-        <v>572446.2804004514</v>
+        <v>571774.3254981936</v>
       </c>
       <c r="L6" t="n">
-        <v>570817.9366856411</v>
+        <v>570177.1677483196</v>
       </c>
       <c r="M6" t="n">
-        <v>373352.5186447959</v>
+        <v>373352.5186447967</v>
       </c>
       <c r="N6" t="n">
-        <v>574958.4812894808</v>
+        <v>574958.481289481</v>
       </c>
       <c r="O6" t="n">
-        <v>556429.9403910817</v>
+        <v>555178.1835350638</v>
       </c>
       <c r="P6" t="n">
-        <v>556429.9403910819</v>
+        <v>555178.1835350634</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26715,19 +26715,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="M2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="3">
@@ -26798,19 +26798,19 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>852.2504104619647</v>
+        <v>852.250410461964</v>
       </c>
       <c r="F4" t="n">
-        <v>852.2504104619647</v>
+        <v>852.250410461964</v>
       </c>
       <c r="G4" t="n">
         <v>1014.336461208615</v>
       </c>
       <c r="H4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
         <v>1194.51293060493</v>
@@ -26822,16 +26822,16 @@
         <v>1186.086238831507</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>852.2504104619645</v>
+        <v>852.2504104619637</v>
       </c>
       <c r="P4" t="n">
-        <v>852.2504104619645</v>
+        <v>852.2504104619637</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26937,10 +26937,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="M2" t="n">
-        <v>44.79498292297244</v>
+        <v>44.79498292297252</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="E4" t="n">
-        <v>836.9476729468297</v>
+        <v>836.9476729468289</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>162.08605074665</v>
+        <v>162.0860507466507</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.0525151380269</v>
+        <v>187.0525151380273</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>665.1978953239376</v>
+        <v>665.1978953239366</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>8.426691773423613</v>
       </c>
       <c r="M4" t="n">
-        <v>836.9476729468297</v>
+        <v>836.9476729468289</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>162.08605074665</v>
+        <v>162.0860507466507</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27463,7 +27463,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>140.5690198229273</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>82.52058710970364</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>194.85489893178</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -27520,13 +27520,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>246.385153397878</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>198.896939461766</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>198.8066500355929</v>
       </c>
     </row>
     <row r="4">
@@ -27548,10 +27548,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>139.3646269336318</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>161.1149336167473</v>
       </c>
       <c r="H4" t="n">
         <v>155.3511267657281</v>
@@ -27560,7 +27560,7 @@
         <v>148.5744291855468</v>
       </c>
       <c r="J4" t="n">
-        <v>86.48313437496134</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>212.5282322627954</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>375.8577959217691</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>348.6266205313835</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>5.073243612901081</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>3.934278125245374</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161.2233538868258</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27703,13 +27703,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>150.7690347136895</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>138.1931666516724</v>
       </c>
       <c r="G6" t="n">
-        <v>130.4674714214992</v>
+        <v>132.0336874001691</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27742,10 +27742,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>93.2817884109317</v>
       </c>
       <c r="S6" t="n">
-        <v>164.8071253621264</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27760,7 +27760,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>198.896939461766</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27815,10 +27815,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.28599750998295</v>
+        <v>82.82706289750146</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4665772472916</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.7086076103834</v>
       </c>
     </row>
     <row r="8">
@@ -27870,13 +27870,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>324.1720646006321</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>208.9465277216875</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -27906,7 +27906,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>219.6078975753452</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>354.428363163334</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27931,13 +27931,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.2304461347323</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>157.4057614731807</v>
       </c>
       <c r="D9" t="n">
-        <v>132.1423280495037</v>
+        <v>134.7130056875657</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27952,10 +27952,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>74.09389533628003</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>86.67918294931219</v>
+        <v>84.85509663750808</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>169.0747697137129</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>151.9440835834928</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28037,7 +28037,7 @@
         <v>78.05644260153773</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>6.966754310747802</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>72.68339204836344</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28064,10 +28064,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>212.6428519131464</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859236</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859358</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859253</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="26">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="C32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="D32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="E32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="F32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="G32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="H32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="I32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="T32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="U32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="V32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="W32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="X32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="Y32" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="C34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="D34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="E34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="F34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="G34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="H34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="I34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="J34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="K34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="L34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="M34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="N34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="O34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="P34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="R34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="S34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="T34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="U34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="V34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="W34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="X34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.180153695620144</v>
+        <v>2.180153695620053</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="38">
@@ -30243,7 +30243,7 @@
         <v>46.97513661859257</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30410,13 +30410,13 @@
         <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859227</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
         <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859244</v>
       </c>
       <c r="O40" t="n">
         <v>46.97513661859257</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
   </sheetData>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.7086478970249</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353163</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M2" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="N3" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>6.598225711743296</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="L5" t="n">
+      <c r="O5" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>6.598225711743297</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>6.598225711743296</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="O6" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6.598225711743297</v>
-      </c>
       <c r="Q6" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35105,10 +35105,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="N7" t="n">
+        <v>6.598225711743297</v>
+      </c>
+      <c r="O7" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="O7" t="n">
-        <v>6.598225711743297</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35175,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M8" t="n">
         <v>15.30273751513505</v>
@@ -35187,7 +35187,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O8" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35424,16 +35424,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>590.6064391042942</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>267.6313231468088</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>207.6240193118018</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>481.3154244354475</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,25 +35804,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629119</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>730.4252907588765</v>
+        <v>476.7285102482475</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129113</v>
@@ -35901,10 +35901,10 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222472</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K19" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887906</v>
@@ -36053,10 +36053,10 @@
         <v>394.6085160120763</v>
       </c>
       <c r="N19" t="n">
-        <v>391.8320827861336</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.9322077637029</v>
@@ -36123,25 +36123,25 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>742.591899839725</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>329.1988939204483</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222472</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525805</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
         <v>366.7325087887906</v>
@@ -36293,7 +36293,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O22" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
         <v>281.9322077637029</v>
@@ -36360,7 +36360,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>504.9282531982387</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923319</v>
@@ -36372,16 +36372,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>529.1913967441342</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609573</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165873</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
-        <v>253.022796162912</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L25" t="n">
         <v>366.7325087887906</v>
@@ -36530,7 +36530,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
-        <v>349.3282668412322</v>
+        <v>349.3282668412326</v>
       </c>
       <c r="P25" t="n">
         <v>281.9322077637029</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>507.3053774831317</v>
+        <v>440.9775330409156</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36609,16 +36609,16 @@
         <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427824</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>318.3309425707635</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37068,25 +37068,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>591.8728068126962</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>638.2785531781526</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636241</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.75857030868634</v>
+        <v>47.75857030868625</v>
       </c>
       <c r="K34" t="n">
         <v>208.2278132399396</v>
       </c>
       <c r="L34" t="n">
-        <v>321.9375258658182</v>
+        <v>321.9375258658181</v>
       </c>
       <c r="M34" t="n">
-        <v>349.8135330891039</v>
+        <v>349.8135330891038</v>
       </c>
       <c r="N34" t="n">
-        <v>347.0370998631602</v>
+        <v>347.0370998631601</v>
       </c>
       <c r="O34" t="n">
-        <v>304.5332839182599</v>
+        <v>304.5332839182598</v>
       </c>
       <c r="P34" t="n">
-        <v>237.1372248407305</v>
+        <v>237.1372248407304</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.57439223351378</v>
+        <v>80.57439223351368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>573.4952846676507</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>546.3100430489608</v>
+        <v>614.4119707098153</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887904</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>419.7447247714725</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>481.3154244354461</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37949,13 +37949,13 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>538.143552608406</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>481.3154244354433</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
@@ -38183,16 +38183,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
